--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.81423266666667</v>
+        <v>59.38757333333334</v>
       </c>
       <c r="H2">
-        <v>110.442698</v>
+        <v>178.16272</v>
       </c>
       <c r="I2">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="J2">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>5652.052965194032</v>
+        <v>8652.813658612944</v>
       </c>
       <c r="R2">
-        <v>50868.4766867463</v>
+        <v>77875.32292751649</v>
       </c>
       <c r="S2">
-        <v>0.04370087539182236</v>
+        <v>0.05430998913004508</v>
       </c>
       <c r="T2">
-        <v>0.04370087539182236</v>
+        <v>0.05430998913004508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.81423266666667</v>
+        <v>59.38757333333334</v>
       </c>
       <c r="H3">
-        <v>110.442698</v>
+        <v>178.16272</v>
       </c>
       <c r="I3">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="J3">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>6214.231528034822</v>
+        <v>10024.60472076153</v>
       </c>
       <c r="R3">
-        <v>55928.0837523134</v>
+        <v>90221.44248685378</v>
       </c>
       <c r="S3">
-        <v>0.04804756065361125</v>
+        <v>0.06292013151995129</v>
       </c>
       <c r="T3">
-        <v>0.04804756065361124</v>
+        <v>0.06292013151995129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.81423266666667</v>
+        <v>59.38757333333334</v>
       </c>
       <c r="H4">
-        <v>110.442698</v>
+        <v>178.16272</v>
       </c>
       <c r="I4">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="J4">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>3444.438012737251</v>
+        <v>7609.101406184676</v>
       </c>
       <c r="R4">
-        <v>30999.94211463527</v>
+        <v>68481.91265566209</v>
       </c>
       <c r="S4">
-        <v>0.02663190832011593</v>
+        <v>0.04775905629817354</v>
       </c>
       <c r="T4">
-        <v>0.02663190832011593</v>
+        <v>0.04775905629817354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.81423266666667</v>
+        <v>59.38757333333334</v>
       </c>
       <c r="H5">
-        <v>110.442698</v>
+        <v>178.16272</v>
       </c>
       <c r="I5">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="J5">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>2506.693005541896</v>
+        <v>3905.390901591627</v>
       </c>
       <c r="R5">
-        <v>22560.23704987707</v>
+        <v>35148.51811432464</v>
       </c>
       <c r="S5">
-        <v>0.01938139634489049</v>
+        <v>0.02451245869635639</v>
       </c>
       <c r="T5">
-        <v>0.01938139634489049</v>
+        <v>0.02451245869635639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>642.303543</v>
       </c>
       <c r="I6">
-        <v>0.8011833806175486</v>
+        <v>0.6831820482914401</v>
       </c>
       <c r="J6">
-        <v>0.8011833806175486</v>
+        <v>0.68318204829144</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>32870.74392883613</v>
+        <v>31194.70150571279</v>
       </c>
       <c r="R6">
-        <v>295836.6953595252</v>
+        <v>280752.3135514151</v>
       </c>
       <c r="S6">
-        <v>0.2541519503296543</v>
+        <v>0.1957957222393071</v>
       </c>
       <c r="T6">
-        <v>0.2541519503296543</v>
+        <v>0.1957957222393071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>642.303543</v>
       </c>
       <c r="I7">
-        <v>0.8011833806175486</v>
+        <v>0.6831820482914401</v>
       </c>
       <c r="J7">
-        <v>0.8011833806175486</v>
+        <v>0.68318204829144</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>36140.21569338219</v>
@@ -883,10 +883,10 @@
         <v>325261.9412404397</v>
       </c>
       <c r="S7">
-        <v>0.2794310443260079</v>
+        <v>0.2268365873696287</v>
       </c>
       <c r="T7">
-        <v>0.2794310443260078</v>
+        <v>0.2268365873696286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>642.303543</v>
       </c>
       <c r="I8">
-        <v>0.8011833806175486</v>
+        <v>0.6831820482914401</v>
       </c>
       <c r="J8">
-        <v>0.8011833806175486</v>
+        <v>0.68318204829144</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>20031.87878681681</v>
+        <v>27431.961031122</v>
       </c>
       <c r="R8">
-        <v>180286.9090813513</v>
+        <v>246887.6492800979</v>
       </c>
       <c r="S8">
-        <v>0.1548836580473762</v>
+        <v>0.1721786189089015</v>
       </c>
       <c r="T8">
-        <v>0.1548836580473762</v>
+        <v>0.1721786189089015</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>642.303543</v>
       </c>
       <c r="I9">
-        <v>0.8011833806175486</v>
+        <v>0.6831820482914401</v>
       </c>
       <c r="J9">
-        <v>0.8011833806175486</v>
+        <v>0.68318204829144</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>14578.21864033853</v>
+        <v>14079.5246777343</v>
       </c>
       <c r="R9">
-        <v>131203.9677630467</v>
+        <v>126715.7220996087</v>
       </c>
       <c r="S9">
-        <v>0.1127167279145101</v>
+        <v>0.08837111977360286</v>
       </c>
       <c r="T9">
-        <v>0.1127167279145101</v>
+        <v>0.08837111977360285</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.037618</v>
+        <v>39.60717</v>
       </c>
       <c r="H10">
-        <v>48.112854</v>
+        <v>118.82151</v>
       </c>
       <c r="I10">
-        <v>0.06001402209123193</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="J10">
-        <v>0.06001402209123194</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>2462.239731907378</v>
+        <v>5770.794163139261</v>
       </c>
       <c r="R10">
-        <v>22160.15758716641</v>
+        <v>51937.14746825336</v>
       </c>
       <c r="S10">
-        <v>0.01903768991046327</v>
+        <v>0.03622079252334912</v>
       </c>
       <c r="T10">
-        <v>0.01903768991046327</v>
+        <v>0.03622079252334912</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.037618</v>
+        <v>39.60717</v>
       </c>
       <c r="H11">
-        <v>48.112854</v>
+        <v>118.82151</v>
       </c>
       <c r="I11">
-        <v>0.06001402209123193</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="J11">
-        <v>0.06001402209123194</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>2707.145149881581</v>
+        <v>6685.678519468122</v>
       </c>
       <c r="R11">
-        <v>24364.30634893423</v>
+        <v>60171.10667521309</v>
       </c>
       <c r="S11">
-        <v>0.02093126401877055</v>
+        <v>0.04196312806966131</v>
       </c>
       <c r="T11">
-        <v>0.02093126401877055</v>
+        <v>0.04196312806966131</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.037618</v>
+        <v>39.60717</v>
       </c>
       <c r="H12">
-        <v>48.112854</v>
+        <v>118.82151</v>
       </c>
       <c r="I12">
-        <v>0.06001402209123193</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="J12">
-        <v>0.06001402209123194</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>1500.522408632914</v>
+        <v>5074.714389328961</v>
       </c>
       <c r="R12">
-        <v>13504.70167769622</v>
+        <v>45672.42950396065</v>
       </c>
       <c r="S12">
-        <v>0.01160182737248164</v>
+        <v>0.0318517992177263</v>
       </c>
       <c r="T12">
-        <v>0.01160182737248164</v>
+        <v>0.0318517992177263</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.037618</v>
+        <v>39.60717</v>
       </c>
       <c r="H13">
-        <v>48.112854</v>
+        <v>118.82151</v>
       </c>
       <c r="I13">
-        <v>0.06001402209123193</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="J13">
-        <v>0.06001402209123194</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>1092.006595116487</v>
+        <v>2604.61023533643</v>
       </c>
       <c r="R13">
-        <v>9828.059356048381</v>
+        <v>23441.49211802787</v>
       </c>
       <c r="S13">
-        <v>0.008443240789516476</v>
+        <v>0.01634801801473225</v>
       </c>
       <c r="T13">
-        <v>0.008443240789516476</v>
+        <v>0.01634801801473225</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2781493333333334</v>
+        <v>0.292259</v>
       </c>
       <c r="H14">
-        <v>0.8344480000000001</v>
+        <v>0.876777</v>
       </c>
       <c r="I14">
-        <v>0.001040856580779521</v>
+        <v>0.0009325782385647279</v>
       </c>
       <c r="J14">
-        <v>0.001040856580779521</v>
+        <v>0.000932578238564728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>42.70399381858844</v>
+        <v>42.58235393553534</v>
       </c>
       <c r="R14">
-        <v>384.335944367296</v>
+        <v>383.2411854198181</v>
       </c>
       <c r="S14">
-        <v>0.0003301812499089382</v>
+        <v>0.0002672711178829866</v>
       </c>
       <c r="T14">
-        <v>0.0003301812499089382</v>
+        <v>0.0002672711178829866</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2781493333333334</v>
+        <v>0.292259</v>
       </c>
       <c r="H15">
-        <v>0.8344480000000001</v>
+        <v>0.876777</v>
       </c>
       <c r="I15">
-        <v>0.001040856580779521</v>
+        <v>0.0009325782385647279</v>
       </c>
       <c r="J15">
-        <v>0.001040856580779521</v>
+        <v>0.000932578238564728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>46.95152476359824</v>
+        <v>49.33323230165734</v>
       </c>
       <c r="R15">
-        <v>422.5637228723841</v>
+        <v>443.9990907149161</v>
       </c>
       <c r="S15">
-        <v>0.0003630225593754021</v>
+        <v>0.0003096434773428938</v>
       </c>
       <c r="T15">
-        <v>0.0003630225593754021</v>
+        <v>0.0003096434773428939</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2781493333333334</v>
+        <v>0.292259</v>
       </c>
       <c r="H16">
-        <v>0.8344480000000001</v>
+        <v>0.876777</v>
       </c>
       <c r="I16">
-        <v>0.001040856580779521</v>
+        <v>0.0009325782385647279</v>
       </c>
       <c r="J16">
-        <v>0.001040856580779521</v>
+        <v>0.000932578238564728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>26.02439511983467</v>
+        <v>37.44602183672534</v>
       </c>
       <c r="R16">
-        <v>234.219556078512</v>
+        <v>337.014196530528</v>
       </c>
       <c r="S16">
-        <v>0.0002012169481218586</v>
+        <v>0.0002350325708091103</v>
       </c>
       <c r="T16">
-        <v>0.0002012169481218586</v>
+        <v>0.0002350325708091104</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2781493333333334</v>
+        <v>0.292259</v>
       </c>
       <c r="H17">
-        <v>0.8344480000000001</v>
+        <v>0.876777</v>
       </c>
       <c r="I17">
-        <v>0.001040856580779521</v>
+        <v>0.0009325782385647279</v>
       </c>
       <c r="J17">
-        <v>0.001040856580779521</v>
+        <v>0.000932578238564728</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>18.93927804161778</v>
+        <v>19.219267187461</v>
       </c>
       <c r="R17">
-        <v>170.45350237456</v>
+        <v>172.973404687149</v>
       </c>
       <c r="S17">
-        <v>0.0001464358233733223</v>
+        <v>0.0001206310725297372</v>
       </c>
       <c r="T17">
-        <v>0.0001464358233733223</v>
+        <v>0.0001206310725297372</v>
       </c>
     </row>
   </sheetData>
